--- a/Validacion_Portabilidad/Formatos/Formato_Informe_Ejecucion.xlsx
+++ b/Validacion_Portabilidad/Formatos/Formato_Informe_Ejecucion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-83685\Documents\Validacion_Portabilidad\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Validacion_Portabilidad\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B0A66-5D0A-4DBD-8971-35816D8F6093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20960C7-AF83-4101-8F3F-9EECAB6491E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2070" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>STATUS_EJECUCION</t>
+  </si>
+  <si>
+    <t>Observaciones_Ejecucion</t>
   </si>
 </sst>
 </file>
@@ -562,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV1"/>
+  <dimension ref="A1:BW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BV1" sqref="BV1"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BW1" sqref="BW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +576,7 @@
     <col min="74" max="74" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -795,6 +798,9 @@
       </c>
       <c r="BV1" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Validacion_Portabilidad/Formatos/Formato_Informe_Ejecucion.xlsx
+++ b/Validacion_Portabilidad/Formatos/Formato_Informe_Ejecucion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Validacion_Portabilidad\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-83685\Documents\Validacion_Portabilidad\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20960C7-AF83-4101-8F3F-9EECAB6491E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00689565-D4E5-4251-8DBE-D0350D1DEDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Observaciones_Ejecucion</t>
+  </si>
+  <si>
+    <t>Proveedor Donante</t>
   </si>
 </sst>
 </file>
@@ -565,18 +568,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW1"/>
+  <dimension ref="A1:BX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BW1" sqref="BW1"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BV1" sqref="BV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="74" max="74" width="9.140625" style="1"/>
+    <col min="75" max="75" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,10 +799,13 @@
       <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>73</v>
       </c>
     </row>
